--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/word_level_predictions_99.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -653,59 +653,59 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="D69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="D70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>9</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" s="2" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>9</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>9</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>2</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -14409,81 +14409,81 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>21</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>screen</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>9</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G269" t="b">
-        <v>1</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I269" t="b">
-        <v>1</v>
-      </c>
-      <c r="J269" t="inlineStr">
+      <c r="I270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J270" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K269" t="b">
-        <v>1</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen . Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>screen</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E270" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F270" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2" t="inlineStr">
+      <c r="K270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori1/99/word_level_predictions_99.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G4" t="b">
@@ -653,59 +653,59 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected . Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G6" t="b">
@@ -757,7 +757,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3986,158 +3986,158 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>5</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="inlineStr">
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>5</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>5</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Critically Low Voltage . Aircraft will land .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>2</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6794,158 +6794,158 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="F123" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>1</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="D124" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G269" t="b">
@@ -14433,57 +14433,57 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
+      <c r="A270" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B270" s="2" t="inlineStr">
         <is>
           <t>Drag a box around or tap a target on screen . Then tap Go .</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" s="2" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
       </c>
-      <c r="D270" t="n">
+      <c r="D270" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="E270" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="F270" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G270" t="b">
-        <v>1</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H270" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I270" t="b">
-        <v>1</v>
-      </c>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K270" t="b">
-        <v>1</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="I270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L270" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
